--- a/emails/invitee.xlsx
+++ b/emails/invitee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanglianzhong/Python/PythonWorkspace/UsefulTools/emails/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3019AE4A-FB6F-3E48-BBB1-97660BA80AF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F31E5-D23C-1A4F-8566-C31F1359147D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1F92616B-802F-304A-A8FD-E196EA323482}"/>
   </bookViews>
@@ -47,11 +47,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angeleguan@163.com</t>
+    <t>傅静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13307799996@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -480,7 +480,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{56116A36-8DD6-194F-B396-BE5F70BD2A87}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{C5C9FC68-509A-B34F-8C28-FB04E97FD483}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{B8FC38B9-77E1-9947-8728-66D802809E5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
